--- a/src/integrationTest/resources/Staff Data Upload Xlsx With Only Header.xlsx
+++ b/src/integrationTest/resources/Staff Data Upload Xlsx With Only Header.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/462450/IdeaProjects/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_224557/Documents/GitHub/duplicate/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8CAE6C1-9B14-D748-88B7-AFB918059C6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6DCAEB-3FB1-A342-869A-43F172A55249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{ECD3FEF4-1D60-5343-AD68-F0E0BAE26D0A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Case Worker Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Staff Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>FIRST NAME</t>
   </si>
@@ -137,6 +137,36 @@
   </si>
   <si>
     <t>Suspended</t>
+  </si>
+  <si>
+    <t>Task Supervisor</t>
+  </si>
+  <si>
+    <t>Case Allocator</t>
+  </si>
+  <si>
+    <t>Service1</t>
+  </si>
+  <si>
+    <t>Service2</t>
+  </si>
+  <si>
+    <t>Service3</t>
+  </si>
+  <si>
+    <t>Service4</t>
+  </si>
+  <si>
+    <t>Service5</t>
+  </si>
+  <si>
+    <t>Service6</t>
+  </si>
+  <si>
+    <t>Service7</t>
+  </si>
+  <si>
+    <t>Service8</t>
   </si>
 </sst>
 </file>
@@ -541,15 +571,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02128D25-F8A5-BA43-B335-977A768B6C4A}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,34 +614,40 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/integrationTest/resources/Staff Data Upload Xlsx With Only Header.xlsx
+++ b/src/integrationTest/resources/Staff Data Upload Xlsx With Only Header.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_224557/Documents/GitHub/duplicate/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2088737/IdeaProjects/refdata_workspace/RDCC-5182/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6DCAEB-3FB1-A342-869A-43F172A55249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB58E002-8483-F142-B3EE-FEAB4A74150E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{ECD3FEF4-1D60-5343-AD68-F0E0BAE26D0A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14060" activeTab="1" xr2:uid="{ECD3FEF4-1D60-5343-AD68-F0E0BAE26D0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="VERSION" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>FIRST NAME</t>
   </si>
@@ -167,6 +168,12 @@
   </si>
   <si>
     <t>Service8</t>
+  </si>
+  <si>
+    <t>File version</t>
+  </si>
+  <si>
+    <t>vx.xx</t>
   </si>
 </sst>
 </file>
@@ -573,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02128D25-F8A5-BA43-B335-977A768B6C4A}">
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -657,6 +664,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3802364D-B858-FE41-86F0-DBE4949C72D1}">
+  <dimension ref="A6:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB02AC5-1C41-8C45-84A6-78456F5E9D85}">
   <dimension ref="A1:U1"/>
   <sheetViews>

--- a/src/integrationTest/resources/Staff Data Upload Xlsx With Only Header.xlsx
+++ b/src/integrationTest/resources/Staff Data Upload Xlsx With Only Header.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2088737/IdeaProjects/refdata_workspace/RDCC-5182/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_224557/Documents/GitHub/duplicate/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB58E002-8483-F142-B3EE-FEAB4A74150E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6DCAEB-3FB1-A342-869A-43F172A55249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14060" activeTab="1" xr2:uid="{ECD3FEF4-1D60-5343-AD68-F0E0BAE26D0A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{ECD3FEF4-1D60-5343-AD68-F0E0BAE26D0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff Data" sheetId="1" r:id="rId1"/>
-    <sheet name="VERSION" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>FIRST NAME</t>
   </si>
@@ -168,12 +167,6 @@
   </si>
   <si>
     <t>Service8</t>
-  </si>
-  <si>
-    <t>File version</t>
-  </si>
-  <si>
-    <t>vx.xx</t>
   </si>
 </sst>
 </file>
@@ -580,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02128D25-F8A5-BA43-B335-977A768B6C4A}">
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
@@ -664,29 +657,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3802364D-B858-FE41-86F0-DBE4949C72D1}">
-  <dimension ref="A6:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB02AC5-1C41-8C45-84A6-78456F5E9D85}">
   <dimension ref="A1:U1"/>
   <sheetViews>
